--- a/resourses/Yandex.Routes.Checklist_Cases.xlsx
+++ b/resourses/Yandex.Routes.Checklist_Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_home\OneDrive\selinedv.github.io\resourses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89b0dd35fb94fd3e/selinedv.github.io/resourses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2BBC0B0E-D269-4047-B2EB-59026FF34B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{858E40FF-A249-4D18-AFE0-1A8A80879B47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EEFDC3-90B1-46A5-B613-41C4BA77D14A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14205" tabRatio="811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14205" tabRatio="811" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1. Конфигурации браузер" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="182">
   <si>
     <t>Конфигурации браузеров, ОС и разрешений</t>
   </si>
@@ -284,12 +284,6 @@
     <t>Операционнная система:Windows 10 Браузер:Firefox 72.0.2 Разрешение:1920x1080</t>
   </si>
   <si>
-    <t>На панели результатов: выбранный тип транспорта, стоимость проезда, время в пути.</t>
-  </si>
-  <si>
-    <t>На панели результатов: выбранный тип транспорта, стоимость проезда, время в пути, кнопка заказать Такси</t>
-  </si>
-  <si>
     <t>не верный падеж</t>
   </si>
   <si>
@@ -333,1457 +327,1465 @@
   </si>
   <si>
     <t>Проверка отображения результата: название траспорта - Аэро, стоимость, время в пути</t>
+  </si>
+  <si>
+    <t>ID: BUG_006</t>
+  </si>
+  <si>
+    <t>Предусловие:</t>
+  </si>
+  <si>
+    <t>Открыть сайт   https://yandex.ru/metro/moscow</t>
+  </si>
+  <si>
+    <t>Ввести время начала поездки: 12:00</t>
+  </si>
+  <si>
+    <t>Ввести в поле откуда: 'Фрунзенская набережная, 46'</t>
+  </si>
+  <si>
+    <t>Ввести в поле куда:'М. Пироговская, 25'</t>
+  </si>
+  <si>
+    <t>Переключатель 'Оптимальный'</t>
+  </si>
+  <si>
+    <t>Переключатель 'Каршеринг'</t>
+  </si>
+  <si>
+    <t>На панели интерфейса отображается иконка каршеринг (Drive.SVG)</t>
+  </si>
+  <si>
+    <t>На панели интерфейса отображается иконка свой автомобиль (Car.SVG), совпадающая с (Drive.SVG)</t>
+  </si>
+  <si>
+    <t>Операционная система:Windows 10 Браузер:Yandex 87.0.4280.108 Разрешение:1920x1080</t>
+  </si>
+  <si>
+    <t>Шаги воспроизведения:</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат:</t>
+  </si>
+  <si>
+    <t>Фактический результат:</t>
+  </si>
+  <si>
+    <r>
+      <t>Серьезность:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Блокер</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Приоритет: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Высокий</t>
+    </r>
+  </si>
+  <si>
+    <t>Вместо иконки "Каршеринг" отображается иконка "Авто"</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>При перемещении фокуса отображается ошибка-подсказка: "Вы ввели некорректный адрес"</t>
+  </si>
+  <si>
+    <t>При перемещении фокуса отображается ошибка-подсказка: "Вы ввели некорректное время"</t>
+  </si>
+  <si>
+    <t>ID: BUG_002</t>
+  </si>
+  <si>
+    <r>
+      <t>Серьезность:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> низкий</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Приоритет: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>низкий</t>
+    </r>
+  </si>
+  <si>
+    <t>ID: BUG_003</t>
+  </si>
+  <si>
+    <t>Ввести время начала поездки: 12:12</t>
+  </si>
+  <si>
+    <t>Ввести в поле откуда: 'Комсомольский проспект, 18'</t>
+  </si>
+  <si>
+    <t>Ввести в поле куда:'Хамовнический Вал, 34'</t>
+  </si>
+  <si>
+    <t>Переключатель 'Свой'</t>
+  </si>
+  <si>
+    <t>Переключатель 'Пешком'</t>
+  </si>
+  <si>
+    <t>На карте отображаются точки А и Б, маршрут между ними</t>
+  </si>
+  <si>
+    <t>На карте не отображаются точки А,Б и маршрут</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Серьезность:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Критический</t>
+    </r>
+  </si>
+  <si>
+    <t>!== Вы ввели некорректное время</t>
+  </si>
+  <si>
+    <t>ID: BUG_009</t>
+  </si>
+  <si>
+    <t>Ввести в поле ввода Куда: Усачева, 3</t>
+  </si>
+  <si>
+    <t>Ввести в поле ввода Откуда: Усачева, 3</t>
+  </si>
+  <si>
+    <t>В поле ввода куда отображается:Усачева улица,3</t>
+  </si>
+  <si>
+    <t>В поле ввода откуда отображается:Усачева улица,3</t>
+  </si>
+  <si>
+    <t>В поле ввода куда отображается:Усачева,3</t>
+  </si>
+  <si>
+    <t>В поле ввода откуда отображается:Усачева,3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Серьезность: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>низкий</t>
+    </r>
+  </si>
+  <si>
+    <t>При вводе неверного адреса в поле "Откуда" высплывает подсказка: "Вы ввели некорректное время"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На карте нет визуализации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пешего</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> маршрута, точек откуда и куда, расстояния между точками</t>
+    </r>
+  </si>
+  <si>
+    <t>Сравнить цвет точки А на карте и цвет поля откуда в панели результат</t>
+  </si>
+  <si>
+    <t>Красный кружок слева от поля ввода Откуда</t>
+  </si>
+  <si>
+    <t>Неверное отображение цвета пунктов назанчения А и Б</t>
+  </si>
+  <si>
+    <r>
+      <t>Проверка отрицательной возможности ввода значений в по</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ле Минуты: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1Е-13,▲♦♥ö, ä, β ~`!@#$%^&amp;*()_+?:"{}[];a,b,A,B, пробел</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Минуты: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-1, 60. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Минуты:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 00, 59; 01, 58; 29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Часы:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1Е-13,▲♦♥ö, ä, β ~`!@#$%^&amp;*()_+?:"{}[];a,b,A,B.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Часы:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 24,  -1, 25,  1; 111, пробел</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Часы:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 00, 23; 01, 22; 12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка удаления </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробелов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> после смены фокуса </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка удаления </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробелов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> после смены фокуса </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка соотвествия </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>подсказки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> при вводе неверного значения в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и смене фокуса </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка невозможности ввода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>неверного адреса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>атрибута адреса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>атрибута адреса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Тире, кириллица, цифры, запятая, заглавные буквы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  текста длиной строки более </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> символов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  текста длиной строки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> символов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>орфографии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> названия полей </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда и Откуда</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>орфографии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> названия поля: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Время начала поездки</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка соотнесения </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>маркеров</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> полей </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Куда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Откуда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> с аналогичными на карте</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка работы переключателя режима </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>оптимальный, быстрый, свой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Если статус выбран, то другие переключатели режимов в статусе активен</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка работы переключателя режима </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Такси</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, если переключатель выбран,  то другие переключатели не доступны</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка работы переключателя режима </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Каршеринг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, если переключатель выбран,  то другие переключатели не доступны</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>визуализации маршрута на Автомобиле</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, точек откуда и куда, расстояния между точками</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>визуализации пешего маршрута,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> точек откуда и куда, расстояния между точками</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>расположения и отображения переключателей Оптимальный, Быстрый, Свой,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выбранный выделяется синим</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">расположения и отображения переключателей собственный автомобиль, пешком, шеринг самоката, шеринг велосипеда, каршеринг, такси, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проверка</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> визуализации маршрута Такси </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сплошной синей линией с точками А - красная и Б-синяя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>визуализации маршрута Велосипед</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сплошной синей линией с точками А - красная и Б-синяя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>визуализации маршрута Самокат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сплошной синей линией с точками А - красная и Б-синяя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">визуализации маршрута Каршеринг </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сплошной синей линией с точками А - красная и Б-синяя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проверка</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> взаимодействия Карты с блоком Маршрутная панель </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>через построение маршрутов — на карте передвигать или устанавливать маршрутные точки нельзя.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Панели масштаба</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: двигать ползунк масштаба (+),  нажать регуляторов (+), крутить скроллер манипулятора (+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Панели масштаба: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>двигать ползунк масштаба (-),  нажать регуляторов (-), крутить скроллер манипулятора (-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>возможности перемещения карты:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> удерживая кнопку мыши или тачпадом.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка, что система корректно реагирует на горячие и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">функциональные клавиши CTRL+V, CTRL+C, ALT+F4, TAB, F2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и т.д.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проверка</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выделения поля при ошибке</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, для полей: время, куда, откуда: красная прямоугольная рамка по краям поля</t>
+    </r>
+  </si>
+  <si>
+    <t>BUG_14</t>
   </si>
   <si>
     <t>1. На карте отображена красная точка А 
 2. На карте  отображена синяя точка B 
 3. В точке А отобрается текст, соответствует полю откуда: Усачева, 3.   
 4. В точке B отобрается текст, соответствует полю куда: Комсомольский проспект, 18.
-6. Используется черный шрифт на белом фоне: Yandex Sans.
-7. Визуализирован маршрут пунктирной синей линией между точками,
-8. Над точкой А иконка пешехода
-9. Рядом с иконкой пешехода указано расстояние в км: 1,8км.</t>
+5. Используется черный шрифт на белом фоне: Yandex Sans. Визуализирован маршрут сплошной синей линией между точками</t>
   </si>
   <si>
     <t>1. На карте отображена красная точка А 
 2. На карте  отображена синяя точка B 
 3. В точке А отобрается текст, соответствует полю откуда: Усачева, 3.   
 4. В точке B отобрается текст, соответствует полю куда: Комсомольский проспект, 18.
-6. Используется черный шрифт на белом фоне: Yandex Sans.
-7. Визуализирован маршрут сплошной синей линией между точками</t>
-  </si>
-  <si>
-    <t>ID: BUG_006</t>
-  </si>
-  <si>
-    <t>Предусловие:</t>
-  </si>
-  <si>
-    <t>Открыть сайт   https://yandex.ru/metro/moscow</t>
-  </si>
-  <si>
-    <t>Ввести время начала поездки: 12:00</t>
-  </si>
-  <si>
-    <t>Ввести в поле откуда: 'Фрунзенская набережная, 46'</t>
-  </si>
-  <si>
-    <t>Ввести в поле куда:'М. Пироговская, 25'</t>
-  </si>
-  <si>
-    <t>Переключатель 'Оптимальный'</t>
-  </si>
-  <si>
-    <t>Переключатель 'Каршеринг'</t>
-  </si>
-  <si>
-    <t>На панели интерфейса отображается иконка каршеринг (Drive.SVG)</t>
-  </si>
-  <si>
-    <t>На панели интерфейса отображается иконка свой автомобиль (Car.SVG), совпадающая с (Drive.SVG)</t>
-  </si>
-  <si>
-    <t>Операционная система:Windows 10 Браузер:Yandex 87.0.4280.108 Разрешение:1920x1080</t>
-  </si>
-  <si>
-    <t>Шаги воспроизведения:</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат:</t>
-  </si>
-  <si>
-    <t>Фактический результат:</t>
-  </si>
-  <si>
-    <r>
-      <t>Серьезность:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Блокер</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Приоритет: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Высокий</t>
-    </r>
-  </si>
-  <si>
-    <t>Вместо иконки "Каршеринг" отображается иконка "Авто"</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>При перемещении фокуса отображается ошибка-подсказка: "Вы ввели некорректный адрес"</t>
-  </si>
-  <si>
-    <t>При перемещении фокуса отображается ошибка-подсказка: "Вы ввели некорректное время"</t>
-  </si>
-  <si>
-    <t>ID: BUG_002</t>
-  </si>
-  <si>
-    <r>
-      <t>Серьезность:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> низкий</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Приоритет: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>низкий</t>
-    </r>
-  </si>
-  <si>
-    <t>ID: BUG_003</t>
-  </si>
-  <si>
-    <t>Ввести время начала поездки: 12:12</t>
-  </si>
-  <si>
-    <t>Ввести в поле откуда: 'Комсомольский проспект, 18'</t>
-  </si>
-  <si>
-    <t>Ввести в поле куда:'Хамовнический Вал, 34'</t>
-  </si>
-  <si>
-    <t>Переключатель 'Свой'</t>
-  </si>
-  <si>
-    <t>Переключатель 'Пешком'</t>
-  </si>
-  <si>
-    <t>На карте отображаются точки А и Б, маршрут между ними</t>
-  </si>
-  <si>
-    <t>На карте не отображаются точки А,Б и маршрут</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Серьезность:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Критический</t>
-    </r>
-  </si>
-  <si>
-    <t>!== Вы ввели некорректное время</t>
-  </si>
-  <si>
-    <t>ID: BUG_009</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода Куда: Усачева, 3</t>
-  </si>
-  <si>
-    <t>Ввести в поле ввода Откуда: Усачева, 3</t>
-  </si>
-  <si>
-    <t>В поле ввода куда отображается:Усачева улица,3</t>
-  </si>
-  <si>
-    <t>В поле ввода откуда отображается:Усачева улица,3</t>
-  </si>
-  <si>
-    <t>В поле ввода куда отображается:Усачева,3</t>
-  </si>
-  <si>
-    <t>В поле ввода откуда отображается:Усачева,3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Серьезность: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>низкий</t>
-    </r>
-  </si>
-  <si>
-    <t>При вводе неверного адреса в поле "Откуда" высплывает подсказка: "Вы ввели некорректное время"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">На карте нет визуализации </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пешего</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> маршрута, точек откуда и куда, расстояния между точками</t>
-    </r>
-  </si>
-  <si>
-    <t>Сравнить цвет точки А на карте и цвет поля откуда в панели результат</t>
-  </si>
-  <si>
-    <t>Красный кружок слева от поля ввода Откуда</t>
-  </si>
-  <si>
-    <t>Неверное отображение цвета пунктов назанчения А и Б</t>
-  </si>
-  <si>
-    <r>
-      <t>Проверка отрицательной возможности ввода значений в по</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ле Минуты: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1Е-13,▲♦♥ö, ä, β ~`!@#$%^&amp;*()_+?:"{}[];a,b,A,B, пробел</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Минуты: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">-1, 60. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Минуты:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 00, 59; 01, 58; 29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Часы:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 1Е-13,▲♦♥ö, ä, β ~`!@#$%^&amp;*()_+?:"{}[];a,b,A,B.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Часы:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 24,  -1, 25,  1; 111, пробел</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Часы:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 00, 23; 01, 22; 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка удаления </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробелов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> после смены фокуса </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка удаления </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробелов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> после смены фокуса </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка соотвествия </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>подсказки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> при вводе неверного значения в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и смене фокуса </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка невозможности ввода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>неверного адреса</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>атрибута адреса</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>атрибута адреса</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>: Тире, кириллица, цифры, запятая, заглавные буквы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отрицательной возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  текста длиной строки более </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> символов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка возможности ввода значений в поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  текста длиной строки </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>49</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> символов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>орфографии</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> названия полей </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда и Откуда</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>орфографии</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> названия поля: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Время начала поездки</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка соотнесения </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>маркеров</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> полей </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Куда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Откуда</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> с аналогичными на карте</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка работы переключателя режима </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>оптимальный, быстрый, свой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. Если статус выбран, то другие переключатели режимов в статусе активен</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка работы переключателя режима </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Такси</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, если переключатель выбран,  то другие переключатели не доступны</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка работы переключателя режима </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Каршеринг</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, если переключатель выбран,  то другие переключатели не доступны</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>визуализации маршрута на Автомобиле</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, точек откуда и куда, расстояния между точками</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>визуализации пешего маршрута,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> точек откуда и куда, расстояния между точками</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>расположения и отображения переключателей Оптимальный, Быстрый, Свой,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> выбранный выделяется синим</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">расположения и отображения переключателей собственный автомобиль, пешком, шеринг самоката, шеринг велосипеда, каршеринг, такси, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> визуализации маршрута Такси </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сплошной синей линией с точками А - красная и Б-синяя</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>визуализации маршрута Велосипед</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> сплошной синей линией с точками А - красная и Б-синяя</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>визуализации маршрута Самокат</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> сплошной синей линией с точками А - красная и Б-синяя</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">визуализации маршрута Каршеринг </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сплошной синей линией с точками А - красная и Б-синяя</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> взаимодействия Карты с блоком Маршрутная панель </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>через построение маршрутов — на карте передвигать или устанавливать маршрутные точки нельзя.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Панели масштаба</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>: двигать ползунк масштаба (+),  нажать регуляторов (+), крутить скроллер манипулятора (+)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Панели масштаба: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>двигать ползунк масштаба (-),  нажать регуляторов (-), крутить скроллер манипулятора (-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>возможности перемещения карты:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> удерживая кнопку мыши или тачпадом.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка, что система корректно реагирует на горячие и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">функциональные клавиши CTRL+V, CTRL+C, ALT+F4, TAB, F2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>и т.д.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> выделения поля при ошибке</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, для полей: время, куда, откуда: красная прямоугольная рамка по краям поля</t>
-    </r>
-  </si>
-  <si>
-    <t>BUG_14</t>
+5. Используется черный шрифт на белом фоне: Yandex Sans. Визуализирован маршрут пунктирной синей линией между точками. Над точкой А иконка пешехода. Рядом с иконкой пешехода указано расстояние в км: 1,8км.</t>
+  </si>
+  <si>
+    <t>1
+2
+3
+4</t>
+  </si>
+  <si>
+    <t>Ввести время начала поездки: 01:00
+Ввести в поле откуда: 'Усачёва улица, 3'
+Ввести в поле куда: 'Комсомольский проспект, 18'
+Режим 'Свой', переключатель 'Пешком'</t>
   </si>
 </sst>
 </file>
@@ -2253,14 +2255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2295,6 +2289,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4187,7 +4189,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4201,12 +4203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4673,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92BAFD5-5168-4872-A9B1-146743CFA88C}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4690,12 +4692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4727,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>48</v>
@@ -4740,16 +4742,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4757,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>48</v>
@@ -4770,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>48</v>
@@ -4783,7 +4785,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>48</v>
@@ -4796,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>48</v>
@@ -4809,7 +4811,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>38</v>
@@ -4826,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>38</v>
@@ -4843,7 +4845,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>38</v>
@@ -4852,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4860,7 +4862,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>48</v>
@@ -4873,13 +4875,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="56"/>
     </row>
@@ -4888,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>48</v>
@@ -4901,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>48</v>
@@ -4914,7 +4916,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>48</v>
@@ -4929,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>48</v>
@@ -4944,7 +4946,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>38</v>
@@ -4953,7 +4955,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -4961,7 +4963,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>48</v>
@@ -4974,13 +4976,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="56" t="s">
         <v>52</v>
@@ -4991,7 +4993,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>48</v>
@@ -5004,7 +5006,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>48</v>
@@ -5019,7 +5021,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>48</v>
@@ -5034,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>48</v>
@@ -5047,13 +5049,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="55"/>
     </row>
@@ -5062,7 +5064,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>48</v>
@@ -5076,7 +5078,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>38</v>
@@ -5094,7 +5096,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>48</v>
@@ -5108,7 +5110,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>38</v>
@@ -5126,7 +5128,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>38</v>
@@ -5144,7 +5146,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>48</v>
@@ -5157,7 +5159,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -5170,7 +5172,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>48</v>
@@ -5183,13 +5185,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="56" t="s">
         <v>55</v>
@@ -5200,7 +5202,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>48</v>
@@ -5213,9 +5215,9 @@
         <v>34</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="58"/>
@@ -5226,13 +5228,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="86" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E38" s="55"/>
     </row>
@@ -5273,8 +5275,8 @@
   </sheetPr>
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5298,18 +5300,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I2" s="5"/>
@@ -5354,7 +5356,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -5366,13 +5368,20 @@
         <v>22</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="F4" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K4 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Пешком'</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>75</v>
@@ -5390,7 +5399,7 @@
       <c r="N4" s="19"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="46">
         <v>2</v>
       </c>
@@ -5402,22 +5411,27 @@
         <v>22</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E5" s="44" t="str">
         <f xml:space="preserve"> "Ввести время начала поездки: 09:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель '"&amp; K5 &amp;"'"</f>
+Режим 'Свой', переключатель '"&amp; K5 &amp;"'"</f>
         <v>Ввести время начала поездки: 09:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель 'Шеринг самокатов'</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>81</v>
+Режим 'Свой', переключатель 'Шеринг самокатов'</v>
+      </c>
+      <c r="F5" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K5 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Шеринг самокатов'</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>76</v>
@@ -5435,7 +5449,7 @@
       <c r="N5" s="19"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="46">
         <v>3</v>
       </c>
@@ -5447,22 +5461,27 @@
         <v>22</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E6" s="44" t="str">
         <f xml:space="preserve"> "Ввести время начала поездки: 13:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель '"&amp; K6 &amp;"'"</f>
+Режим 'Свой', переключатель '"&amp; K6 &amp;"'"</f>
         <v>Ввести время начала поездки: 13:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель 'Шеринг велосипедов'</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>81</v>
+Режим 'Свой', переключатель 'Шеринг велосипедов'</v>
+      </c>
+      <c r="F6" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K6 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Шеринг велосипедов'</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>77</v>
@@ -5480,7 +5499,7 @@
       <c r="N6" s="19"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <v>4</v>
       </c>
@@ -5492,27 +5511,32 @@
         <v>22</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E7" s="44" t="str">
         <f xml:space="preserve"> "Ввести время начала поездки: 19:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель '"&amp; K7 &amp;"'"</f>
+Режим 'Свой', переключатель '"&amp; K7 &amp;"'"</f>
         <v>Ввести время начала поездки: 19:00
 Ввести в поле откуда: 'Усачёва улица, 3'
 Ввести в поле куда: 'Комсомольский проспект, 18'
-Режим 'Свой'
-Переключатель 'Свой авто'</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>81</v>
+Режим 'Свой', переключатель 'Свой авто'</v>
+      </c>
+      <c r="F7" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K7 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Свой авто'</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="50" t="s">
         <v>48</v>
       </c>
@@ -5525,7 +5549,7 @@
       <c r="N7" s="19"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <v>5</v>
       </c>
@@ -5537,7 +5561,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E8" s="44" t="str">
         <f xml:space="preserve"> "Ввести время начала поездки: 23:00
@@ -5551,20 +5575,27 @@
 Режим 'Свой'
 Переключатель 'Такси'</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>82</v>
+      <c r="F8" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K8 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Такси'</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="88" t="s">
-        <v>89</v>
+      <c r="H8" s="84" t="s">
+        <v>87</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>32</v>
@@ -5576,7 +5607,7 @@
       <c r="Q8" s="49"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <v>6</v>
       </c>
@@ -5588,7 +5619,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="E9" s="44" t="str">
         <f xml:space="preserve"> "Ввести время начала поездки: 04:00
@@ -5602,20 +5633,27 @@
 Режим 'Свой'
 Переключатель 'Каршеринг'</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>81</v>
+      <c r="F9" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K9 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Каршеринг'</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="88" t="s">
-        <v>87</v>
+      <c r="H9" s="84" t="s">
+        <v>85</v>
       </c>
       <c r="I9" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" s="20" t="s">
         <v>31</v>
@@ -5627,7 +5665,7 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>7</v>
       </c>
@@ -5645,12 +5683,12 @@
         <v>74</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="84" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="43" t="s">
@@ -5672,7 +5710,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>8</v>
       </c>
@@ -5699,12 +5737,12 @@
 Переключатель 'Шеринг самокатов'</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G11" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="84" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="43" t="s">
@@ -5725,7 +5763,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>9</v>
       </c>
@@ -5752,12 +5790,12 @@
 Переключатель 'Шеринг велосипедов'</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="84" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="43" t="s">
@@ -5775,7 +5813,7 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="29"/>
     </row>
-    <row r="13" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>10</v>
       </c>
@@ -5802,7 +5840,7 @@
 Переключатель 'Свой авто'</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G13" s="66" t="s">
         <v>78</v>
@@ -5821,7 +5859,7 @@
       <c r="Q13" s="49"/>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <v>11</v>
       </c>
@@ -5848,7 +5886,7 @@
 Переключатель 'Такси'</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G14" s="66" t="s">
         <v>79</v>
@@ -5870,7 +5908,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>12</v>
       </c>
@@ -5897,7 +5935,7 @@
 Переключатель 'Каршеринг'</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>80</v>
@@ -5919,7 +5957,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>13</v>
       </c>
@@ -5945,8 +5983,15 @@
 Режим 'Свой'
 Переключатель 'Аэро'</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>81</v>
+      <c r="F16" s="44" t="str">
+        <f xml:space="preserve"> "1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта '"&amp; K16 &amp;"'"</f>
+        <v>1. На карте отображена красная точка А и синяя точка B
+2. На А отобрается текст поле откуда: Усачева, 3.  '
+3. На B отобрается текст поде куда: Комсомольский проспект, 18. 
+4. На панели результатов, стоимость, время и типа траспорта 'Аэро'</v>
       </c>
       <c r="G16" s="66" t="s">
         <v>80</v>
@@ -5968,7 +6013,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>14</v>
       </c>
@@ -5995,7 +6040,7 @@
 Переключатель 'Аэро'</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G17" s="66" t="s">
         <v>80</v>
@@ -6402,7 +6447,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6414,12 +6459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6449,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
@@ -6462,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
@@ -6475,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -6488,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -6501,7 +6546,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -6514,7 +6559,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -6527,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -6561,116 +6606,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
-        <v>120</v>
+      <c r="A1" s="78" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>141</v>
+      <c r="A2" s="81" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
+      <c r="A3" s="81"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>101</v>
+      <c r="A4" s="78" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="76"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>111</v>
+      <c r="A7" s="80" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
+      <c r="A13" s="75"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
-        <v>112</v>
+      <c r="A14" s="80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="75"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="75"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="77"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -6720,119 +6765,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="81" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="81"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="77"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="82" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -6876,116 +6921,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+    </row>
+    <row r="19" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="79" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
+    <row r="21" spans="1:1" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="75"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="81" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="81"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-    </row>
-    <row r="19" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7007,157 +7052,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="81" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+    <row r="14" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="81"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="81"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="83" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="85"/>
+      <c r="A26" s="81"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
+      <c r="A27" s="81"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
+      <c r="A28" s="81"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
+      <c r="A29" s="81"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
+      <c r="A30" s="81"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
+      <c r="A31" s="81"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
+      <c r="A32" s="81"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
+      <c r="A33" s="81"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
+      <c r="A34" s="81"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
+      <c r="A35" s="81"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="81"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
+      <c r="A37" s="81"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
+      <c r="A38" s="81"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
+      <c r="A39" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7180,114 +7225,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="81"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
-        <v>143</v>
+      <c r="A11" s="81" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="81"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
-        <v>112</v>
+      <c r="A13" s="83" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>144</v>
+      <c r="A14" s="81" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="81"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="81"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="83" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
